--- a/1-repeated-measures-expected-values/cortisol.xlsx
+++ b/1-repeated-measures-expected-values/cortisol.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D61F6E59-3A7F-4FA3-A421-E8D4AEDEC5D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A0396-E625-4B3A-B969-0209BC8BBB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24887" yWindow="2500" windowWidth="19200" windowHeight="10573"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
-    <sheet name="wilcoxon-matched-pairs-data" sheetId="1" r:id="rId2"/>
+    <sheet name="cortisol" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -38,7 +48,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -872,19 +882,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -895,14 +905,14 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -910,7 +920,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>33.26</v>
       </c>
@@ -918,7 +928,7 @@
         <v>12.44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>7.37</v>
       </c>
@@ -926,7 +936,7 @@
         <v>2.5499999999999998</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>18.829999999999998</v>
       </c>
@@ -934,7 +944,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>62.7</v>
       </c>
@@ -942,7 +952,7 @@
         <v>34.89</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>7.1</v>
       </c>
@@ -950,7 +960,7 @@
         <v>3.55</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>8.92</v>
       </c>
@@ -958,7 +968,7 @@
         <v>2.94</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>15.85</v>
       </c>
@@ -966,7 +976,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>16.36</v>
       </c>
@@ -974,7 +984,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>20.74</v>
       </c>
@@ -982,7 +992,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>58.79</v>
       </c>
@@ -990,7 +1000,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>10.27</v>
       </c>
@@ -998,7 +1008,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>1.3</v>
       </c>
@@ -1006,7 +1016,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>22.7</v>
       </c>
@@ -1014,7 +1024,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>8.52</v>
       </c>
@@ -1022,7 +1032,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>4.21</v>
       </c>
@@ -1030,7 +1040,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
         <v>13.21</v>
       </c>
@@ -1038,7 +1048,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
         <v>13.04</v>
       </c>
@@ -1046,7 +1056,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
         <v>12.59</v>
       </c>
@@ -1054,7 +1064,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
         <v>10.48</v>
       </c>
@@ -1062,7 +1072,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
         <v>20.82</v>
       </c>

--- a/1-repeated-measures-expected-values/cortisol.xlsx
+++ b/1-repeated-measures-expected-values/cortisol.xlsx
@@ -8,13 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{869A0396-E625-4B3A-B969-0209BC8BBB8B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E8BBF-9DAC-4477-BA28-15508EB60451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
     <sheet name="cortisol" sheetId="1" r:id="rId2"/>
+    <sheet name="critical-values" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
   <si>
     <t>cortisol_morning</t>
   </si>
@@ -43,6 +44,47 @@
   </si>
   <si>
     <t>https://statsguru.bham.ac.uk/downloads</t>
+  </si>
+  <si>
+    <t>Wilcoxon critical values source</t>
+  </si>
+  <si>
+    <t>https://users.sussex.ac.uk/~grahamh/RM1web/WilcoxonTable2005.pdf</t>
+  </si>
+  <si>
+    <t>n</t>
+  </si>
+  <si>
+    <t>critical value</t>
+  </si>
+  <si>
+    <t>Sign</t>
+  </si>
+  <si>
+    <t>Absolute value</t>
+  </si>
+  <si>
+    <t>Signed-rank</t>
+  </si>
+  <si>
+    <t>Positive sum
+(Sum of all positive signed-ranks)</t>
+  </si>
+  <si>
+    <t>Negative sum
+(Sum of all negative signed-ranks)</t>
+  </si>
+  <si>
+    <t>Test statistic</t>
+  </si>
+  <si>
+    <t>Critical value</t>
+  </si>
+  <si>
+    <t>Reject the null?</t>
+  </si>
+  <si>
+    <t>id</t>
   </si>
 </sst>
 </file>
@@ -526,8 +568,11 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -883,9 +928,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A2"/>
+  <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <sheetData>
@@ -897,6 +942,16 @@
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -906,178 +961,504 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:B21"/>
+  <dimension ref="A1:K22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="7" max="7" width="14.796875" customWidth="1"/>
+    <col min="8" max="8" width="33.8984375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+      <c r="D1" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(D3),"")</f>
+        <v/>
+      </c>
+      <c r="E1" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(E3),"")</f>
+        <v/>
+      </c>
+      <c r="F1" s="1" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(F3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="E2" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="F2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J2" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>33.26</v>
+      </c>
+      <c r="C3">
+        <v>12.44</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="K3" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I3),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>2</v>
+      </c>
+      <c r="B4">
+        <v>7.37</v>
+      </c>
+      <c r="C4">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="K4" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I4),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>3</v>
+      </c>
+      <c r="B5">
+        <v>18.829999999999998</v>
+      </c>
+      <c r="C5">
+        <v>6.34</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>4</v>
+      </c>
+      <c r="B6">
+        <v>62.7</v>
+      </c>
+      <c r="C6">
+        <v>34.89</v>
+      </c>
+      <c r="H6" t="s">
+        <v>13</v>
+      </c>
+      <c r="J6" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I6),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>7.1</v>
+      </c>
+      <c r="C7">
+        <v>3.55</v>
+      </c>
+      <c r="H7" t="s">
+        <v>14</v>
+      </c>
+      <c r="J7" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I7),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>8.92</v>
+      </c>
+      <c r="C8">
+        <v>2.94</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="J8" t="str">
+        <f ca="1">IFERROR(_xlfn.FORMULATEXT(I8),"")</f>
+        <v/>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>7</v>
+      </c>
+      <c r="B9">
+        <v>15.85</v>
+      </c>
+      <c r="C9">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>8</v>
+      </c>
+      <c r="B10">
+        <v>16.36</v>
+      </c>
+      <c r="C10">
+        <v>8.93</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>9</v>
+      </c>
+      <c r="B11">
+        <v>20.74</v>
+      </c>
+      <c r="C11">
+        <v>10.32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>10</v>
+      </c>
+      <c r="B12">
+        <v>58.79</v>
+      </c>
+      <c r="C12">
+        <v>33.93</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>11</v>
+      </c>
+      <c r="B13">
+        <v>10.27</v>
+      </c>
+      <c r="C13">
+        <v>2.93</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>1.3</v>
+      </c>
+      <c r="C14">
+        <v>4.21</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>13</v>
+      </c>
+      <c r="B15">
+        <v>22.7</v>
+      </c>
+      <c r="C15">
+        <v>3.93</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>14</v>
+      </c>
+      <c r="B16">
+        <v>8.52</v>
+      </c>
+      <c r="C16">
+        <v>4.32</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>15</v>
+      </c>
+      <c r="B17">
+        <v>4.21</v>
+      </c>
+      <c r="C17">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>16</v>
+      </c>
+      <c r="B18">
+        <v>13.21</v>
+      </c>
+      <c r="C18">
+        <v>8.74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>17</v>
+      </c>
+      <c r="B19">
+        <v>13.04</v>
+      </c>
+      <c r="C19">
+        <v>9.43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>18</v>
+      </c>
+      <c r="B20">
+        <v>12.59</v>
+      </c>
+      <c r="C20">
+        <v>19.32</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>19</v>
+      </c>
+      <c r="B21">
+        <v>10.48</v>
+      </c>
+      <c r="C21">
+        <v>6.32</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>20</v>
+      </c>
+      <c r="B22">
+        <v>20.82</v>
+      </c>
+      <c r="C22">
+        <v>18.32</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B93B14F3-287B-4540-8F71-598024BFFE68}">
+  <dimension ref="A1:B22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="B1" t="s">
-        <v>1</v>
+        <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2">
-        <v>33.26</v>
+        <v>5</v>
       </c>
       <c r="B2">
-        <v>12.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3">
-        <v>7.37</v>
+        <v>6</v>
       </c>
       <c r="B3">
-        <v>2.5499999999999998</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4">
-        <v>18.829999999999998</v>
+        <v>7</v>
       </c>
       <c r="B4">
-        <v>6.34</v>
+        <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5">
-        <v>62.7</v>
+        <v>8</v>
       </c>
       <c r="B5">
-        <v>34.89</v>
+        <v>4</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6">
-        <v>7.1</v>
+        <v>9</v>
       </c>
       <c r="B6">
-        <v>3.55</v>
+        <v>6</v>
       </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7">
-        <v>8.92</v>
+        <v>10</v>
       </c>
       <c r="B7">
-        <v>2.94</v>
+        <v>8</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8">
-        <v>15.85</v>
+        <v>11</v>
       </c>
       <c r="B8">
-        <v>1.21</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9">
-        <v>16.36</v>
+        <v>12</v>
       </c>
       <c r="B9">
-        <v>8.93</v>
+        <v>14</v>
       </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10">
-        <v>20.74</v>
+        <v>13</v>
       </c>
       <c r="B10">
-        <v>10.32</v>
+        <v>17</v>
       </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11">
-        <v>58.79</v>
+        <v>14</v>
       </c>
       <c r="B11">
-        <v>33.93</v>
+        <v>21</v>
       </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12">
-        <v>10.27</v>
+        <v>15</v>
       </c>
       <c r="B12">
-        <v>2.93</v>
+        <v>25</v>
       </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13">
-        <v>1.3</v>
+        <v>16</v>
       </c>
       <c r="B13">
-        <v>4.21</v>
+        <v>30</v>
       </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14">
-        <v>22.7</v>
+        <v>17</v>
       </c>
       <c r="B14">
-        <v>3.93</v>
+        <v>35</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15">
-        <v>8.52</v>
+        <v>18</v>
       </c>
       <c r="B15">
-        <v>4.32</v>
+        <v>40</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16">
-        <v>4.21</v>
+        <v>19</v>
       </c>
       <c r="B16">
-        <v>1.21</v>
+        <v>46</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17">
-        <v>13.21</v>
+        <v>20</v>
       </c>
       <c r="B17">
-        <v>8.74</v>
+        <v>52</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18">
-        <v>13.04</v>
+        <v>21</v>
       </c>
       <c r="B18">
-        <v>9.43</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19">
-        <v>12.59</v>
+        <v>22</v>
       </c>
       <c r="B19">
-        <v>19.32</v>
+        <v>66</v>
       </c>
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20">
-        <v>10.48</v>
+        <v>23</v>
       </c>
       <c r="B20">
-        <v>6.32</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21">
-        <v>20.82</v>
+        <v>24</v>
       </c>
       <c r="B21">
-        <v>18.32</v>
+        <v>81</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>25</v>
+      </c>
+      <c r="B22">
+        <v>89</v>
       </c>
     </row>
   </sheetData>

--- a/1-repeated-measures-expected-values/cortisol.xlsx
+++ b/1-repeated-measures-expected-values/cortisol.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\GeorgeM\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Documents\GitHub\olt-intermediate-stats\1-repeated-measures-expected-values\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{868E8BBF-9DAC-4477-BA28-15508EB60451}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{61BA73E0-D0D8-4550-BA7C-B1B1D493C550}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-25693" yWindow="-93" windowWidth="25786" windowHeight="14586" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="2" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="18">
   <si>
     <t>cortisol_morning</t>
   </si>
@@ -85,6 +85,9 @@
   </si>
   <si>
     <t>id</t>
+  </si>
+  <si>
+    <t>Sum ranks</t>
   </si>
 </sst>
 </file>
@@ -930,26 +933,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:A5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:1" x14ac:dyDescent="0.55000000000000004">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -965,16 +970,17 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E3" sqref="E3"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="7" max="7" width="14.796875" customWidth="1"/>
-    <col min="8" max="8" width="33.8984375" customWidth="1"/>
+    <col min="6" max="6" width="14.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="14.77734375" customWidth="1"/>
+    <col min="8" max="8" width="33.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="62.4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="D1" s="1" t="str">
         <f ca="1">IFERROR(_xlfn.FORMULATEXT(D3),"")</f>
         <v/>
@@ -988,7 +994,7 @@
         <v/>
       </c>
     </row>
-    <row r="2" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" s="1" t="s">
         <v>16</v>
       </c>
@@ -1007,11 +1013,14 @@
       <c r="F2" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="I2" s="1" t="s">
+        <v>17</v>
+      </c>
       <c r="J2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>1</v>
       </c>
@@ -1029,7 +1038,7 @@
         <v/>
       </c>
     </row>
-    <row r="4" spans="1:11" ht="31.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="31.35" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>2</v>
       </c>
@@ -1047,7 +1056,7 @@
         <v/>
       </c>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>3</v>
       </c>
@@ -1058,7 +1067,7 @@
         <v>6.34</v>
       </c>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>4</v>
       </c>
@@ -1076,7 +1085,7 @@
         <v/>
       </c>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>5</v>
       </c>
@@ -1094,7 +1103,7 @@
         <v/>
       </c>
     </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>6</v>
       </c>
@@ -1112,7 +1121,7 @@
         <v/>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>7</v>
       </c>
@@ -1123,7 +1132,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>8</v>
       </c>
@@ -1134,7 +1143,7 @@
         <v>8.93</v>
       </c>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>9</v>
       </c>
@@ -1145,7 +1154,7 @@
         <v>10.32</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>10</v>
       </c>
@@ -1156,7 +1165,7 @@
         <v>33.93</v>
       </c>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>11</v>
       </c>
@@ -1167,7 +1176,7 @@
         <v>2.93</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>12</v>
       </c>
@@ -1178,7 +1187,7 @@
         <v>4.21</v>
       </c>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>13</v>
       </c>
@@ -1189,7 +1198,7 @@
         <v>3.93</v>
       </c>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>14</v>
       </c>
@@ -1200,7 +1209,7 @@
         <v>4.32</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>15</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>1.21</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>16</v>
       </c>
@@ -1222,7 +1231,7 @@
         <v>8.74</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>17</v>
       </c>
@@ -1233,7 +1242,7 @@
         <v>9.43</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>18</v>
       </c>
@@ -1244,7 +1253,7 @@
         <v>19.32</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>19</v>
       </c>
@@ -1255,7 +1264,7 @@
         <v>6.32</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>20</v>
       </c>
@@ -1276,16 +1285,16 @@
   <dimension ref="A1:B22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A8" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft" activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15.7" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
-    <col min="2" max="2" width="10.796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.77734375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" t="s">
         <v>6</v>
       </c>
@@ -1293,7 +1302,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A2">
         <v>5</v>
       </c>
@@ -1301,7 +1310,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A3">
         <v>6</v>
       </c>
@@ -1309,7 +1318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A4">
         <v>7</v>
       </c>
@@ -1317,7 +1326,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A5">
         <v>8</v>
       </c>
@@ -1325,7 +1334,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A6">
         <v>9</v>
       </c>
@@ -1333,7 +1342,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A7">
         <v>10</v>
       </c>
@@ -1341,7 +1350,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A8">
         <v>11</v>
       </c>
@@ -1349,7 +1358,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A9">
         <v>12</v>
       </c>
@@ -1357,7 +1366,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A10">
         <v>13</v>
       </c>
@@ -1365,7 +1374,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A11">
         <v>14</v>
       </c>
@@ -1373,7 +1382,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A12">
         <v>15</v>
       </c>
@@ -1381,7 +1390,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A13">
         <v>16</v>
       </c>
@@ -1389,7 +1398,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A14">
         <v>17</v>
       </c>
@@ -1397,7 +1406,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A15">
         <v>18</v>
       </c>
@@ -1405,7 +1414,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A16">
         <v>19</v>
       </c>
@@ -1413,7 +1422,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A17">
         <v>20</v>
       </c>
@@ -1421,7 +1430,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A18">
         <v>21</v>
       </c>
@@ -1429,7 +1438,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A19">
         <v>22</v>
       </c>
@@ -1437,7 +1446,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A20">
         <v>23</v>
       </c>
@@ -1445,7 +1454,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A21">
         <v>24</v>
       </c>
@@ -1453,7 +1462,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.55000000000000004">
       <c r="A22">
         <v>25</v>
       </c>
